--- a/biology/Botanique/Geophila_repens/Geophila_repens.xlsx
+++ b/biology/Botanique/Geophila_repens/Geophila_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geophila repens est une  espèce d'herbacée tropicale, appartenant à la famille des Rubiaceae.
-En Guyane, on l'appelle Suwi ka'a (Wayãpi), Igka βey (Palikur)[3].
-On l'appelle aussi Snake pennywort (anglais) à Singapour[4], et Oreja de Raton au Costa-Rica[5].
+En Guyane, on l'appelle Suwi ka'a (Wayãpi), Igka βey (Palikur).
+On l'appelle aussi Snake pennywort (anglais) à Singapour, et Oreja de Raton au Costa-Rica.
 </t>
         </is>
       </c>
@@ -513,17 +525,19 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Geophila repens est une plante glabrescente.
 Ses feuilles mesurent 1,2-5,5 × 1,2-5 cm avec des stipules longs de 1,5-2 mm.
 Les pédoncules sont longs de 0,5-6,5 cm
 Le limbe du calice mesure 2-3,5 mm de long
 Le tube de la corolle est long de 7-9 mm, avec des lobes de 2-5 mm
-Le fruit rouge mesure 9-10 mm de diamètre[6].
+Le fruit rouge mesure 9-10 mm de diamètre.
 En 1953, Lemée en propose la description suivante de Geophila repens :
 « G. violacea Dec. (Psychotria v. Aubl. non W.). Feuilles à pétiole poilu, cordées-réniformes avec lobes de la base rapprochés, obtuses, glabres fleurs en ombelles pauciflores subsessiles entre les dernières feuilles, avec bractées linéaires-lancéolées; coro11e violacée ; drupe bleue. Guy. franç. (Aublet et R. Benoist). »
-— Albert Lemée, 1953.[7]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geophila repens présente une répartition pantropicale : Afrique, Madagascar, Asie et Amérique tropicale (du Mexique à l'Argentine en passant par l'Amérique centrale, les Antilles, la Colombie, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, la Bolivie, et le Paraguay)[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geophila repens présente une répartition pantropicale : Afrique, Madagascar, Asie et Amérique tropicale (du Mexique à l'Argentine en passant par l'Amérique centrale, les Antilles, la Colombie, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil, la Bolivie, et le Paraguay).
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geophila repens est une petite herbe rampante de la forêt secondaire, des zones rudérales ombragées[3] des forêts de plaine à feuilles persistantes et des forêts riveraines, à 50-500 m d'altitude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geophila repens est une petite herbe rampante de la forêt secondaire, des zones rudérales ombragées des forêts de plaine à feuilles persistantes et des forêts riveraines, à 50-500 m d'altitude.
 </t>
         </is>
       </c>
@@ -613,15 +631,17 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geophila repens fait partie de la pharmacopée polynésienne[8].
-En Guyane, les Palikur utilisent ses fruits pour soigner des maladies de peau comme le pytiriasis[3].
-On a isolé des sesquiterpenoides antibactériens de Xylaria feejeensis, un champignon endophyte de Geophila repens[9].
-On a isolé dans Geophila repens des cyclotides[10], ainsi qu'un pentylcurcumene inhibiteur de la maladie d'Alzheimer[11],[12],[13].
-L'huile essentielle de Geophila repens présente des propriétés antibactériennes[14]. 
-Geophila repens présente aussi des propriétés antioxydantes[15] et antifongiques[16].
-Geophila repens est employé associé à Arachis pintoi comme plante couvre-sol dans les plantations de bananes au Costa-Rica[5] et sa sensibilité aux nématodes y a été testée[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geophila repens fait partie de la pharmacopée polynésienne.
+En Guyane, les Palikur utilisent ses fruits pour soigner des maladies de peau comme le pytiriasis.
+On a isolé des sesquiterpenoides antibactériens de Xylaria feejeensis, un champignon endophyte de Geophila repens.
+On a isolé dans Geophila repens des cyclotides, ainsi qu'un pentylcurcumene inhibiteur de la maladie d'Alzheimer.
+L'huile essentielle de Geophila repens présente des propriétés antibactériennes. 
+Geophila repens présente aussi des propriétés antioxydantes et antifongiques.
+Geophila repens est employé associé à Arachis pintoi comme plante couvre-sol dans les plantations de bananes au Costa-Rica et sa sensibilité aux nématodes y a été testée.
 </t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant sous le nom de Psychotria violacea[18] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant sous le nom de Psychotria violacea : 
 « 1. PSYCHOTRIA (violacea) repens ; foliis cordatis, petiolatis; floribus cimoſis, fructu violaceo. (TABULA 55.) 
 Planta humillima, terræ affixa, caulibus &amp; ramis hinc &amp; indè expanſis, nodoſis, ad ſingulos nodos radices capillaceas emittentibus.
 Folia cordata, ſubrotunda, oppoſita, glabra, intra baſim petiolorum. Flores terminales, bini, terni, quaterni, pedunculati, pedunculis longis, ad baſim ſquamoſis.
